--- a/Results/Descr_statistics/forest_types.xlsx
+++ b/Results/Descr_statistics/forest_types.xlsx
@@ -5817,21 +5817,25 @@
         <v>8</v>
       </c>
       <c r="D195" t="n">
-        <v>5.5</v>
+        <v>6.75</v>
       </c>
       <c r="E195" t="n">
-        <v>5.5</v>
+        <v>6.75</v>
       </c>
       <c r="F195" t="n">
         <v>5.5</v>
       </c>
       <c r="G195" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="H195" t="inlineStr"/>
-      <c r="I195" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="H195" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="I195" t="n">
+        <v>1.768</v>
+      </c>
       <c r="J195" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="196">
